--- a/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_3_Resultats_202308.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_3_Resultats_202308.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E65701-B314-4B39-A3DA-E690C1FE3432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FC2F56-4817-4841-A5E8-E3FD903A4529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -831,9 +831,6 @@
     <t>THIAMÈNE1</t>
   </si>
   <si>
-    <t>L'ISLAM</t>
-  </si>
-  <si>
     <t>NIARY DAKHAR</t>
   </si>
   <si>
@@ -1132,6 +1129,9 @@
   </si>
   <si>
     <t>WANSANGARAN</t>
+  </si>
+  <si>
+    <t>LISLAM</t>
   </si>
 </sst>
 </file>
@@ -2001,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3204,7 +3204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H361"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD361"/>
     </sheetView>
@@ -4589,10 +4589,10 @@
         <v>47</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>257</v>
+        <v>357</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>257</v>
+        <v>357</v>
       </c>
       <c r="E103" t="s">
         <v>195</v>
@@ -4603,10 +4603,10 @@
         <v>47</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E104" t="s">
         <v>195</v>
@@ -4617,10 +4617,10 @@
         <v>47</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E105" t="s">
         <v>195</v>
@@ -4631,10 +4631,10 @@
         <v>47</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E106" t="s">
         <v>196</v>
@@ -4645,10 +4645,10 @@
         <v>47</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E107" t="s">
         <v>197</v>
@@ -4659,10 +4659,10 @@
         <v>47</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E108" t="s">
         <v>198</v>
@@ -4673,10 +4673,10 @@
         <v>47</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E109" t="s">
         <v>198</v>
@@ -4701,10 +4701,10 @@
         <v>47</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E111" t="s">
         <v>200</v>
@@ -4715,10 +4715,10 @@
         <v>47</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
         <v>201</v>
@@ -4729,10 +4729,10 @@
         <v>47</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E113" t="s">
         <v>202</v>
@@ -4743,10 +4743,10 @@
         <v>47</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E114" t="s">
         <v>203</v>
@@ -4757,10 +4757,10 @@
         <v>47</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E115" t="s">
         <v>203</v>
@@ -4771,10 +4771,10 @@
         <v>47</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E116" t="s">
         <v>204</v>
@@ -4785,10 +4785,10 @@
         <v>47</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E117" t="s">
         <v>204</v>
@@ -4813,10 +4813,10 @@
         <v>47</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E119" t="s">
         <v>205</v>
@@ -4827,10 +4827,10 @@
         <v>47</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E120" t="s">
         <v>205</v>
@@ -4841,10 +4841,10 @@
         <v>47</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E121" t="s">
         <v>205</v>
@@ -4855,10 +4855,10 @@
         <v>47</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E122" t="s">
         <v>205</v>
@@ -4869,10 +4869,10 @@
         <v>47</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E123" t="s">
         <v>205</v>
@@ -4897,10 +4897,10 @@
         <v>47</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E125" t="s">
         <v>206</v>
@@ -4911,10 +4911,10 @@
         <v>47</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E126" t="s">
         <v>206</v>
@@ -4925,10 +4925,10 @@
         <v>47</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E127" t="s">
         <v>206</v>
@@ -4939,10 +4939,10 @@
         <v>47</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E128" t="s">
         <v>206</v>
@@ -4967,10 +4967,10 @@
         <v>47</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E130" t="s">
         <v>207</v>
@@ -4981,10 +4981,10 @@
         <v>47</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E131" t="s">
         <v>207</v>
@@ -4995,10 +4995,10 @@
         <v>47</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E132" t="s">
         <v>208</v>
@@ -5009,10 +5009,10 @@
         <v>47</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E133" t="s">
         <v>208</v>
@@ -5023,10 +5023,10 @@
         <v>47</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E134" t="s">
         <v>208</v>
@@ -5037,10 +5037,10 @@
         <v>47</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E135" t="s">
         <v>208</v>
@@ -5051,10 +5051,10 @@
         <v>47</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E136" t="s">
         <v>208</v>
@@ -5065,10 +5065,10 @@
         <v>47</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E137" t="s">
         <v>208</v>
@@ -5079,10 +5079,10 @@
         <v>47</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E138" t="s">
         <v>209</v>
@@ -5107,10 +5107,10 @@
         <v>47</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E140" t="s">
         <v>209</v>
@@ -5121,10 +5121,10 @@
         <v>47</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E141" t="s">
         <v>209</v>
@@ -5135,10 +5135,10 @@
         <v>47</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E142" t="s">
         <v>210</v>
@@ -5163,10 +5163,10 @@
         <v>47</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E144" t="s">
         <v>210</v>
@@ -5177,10 +5177,10 @@
         <v>47</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E145" t="s">
         <v>210</v>
@@ -5191,10 +5191,10 @@
         <v>47</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E146" t="s">
         <v>210</v>
@@ -5205,10 +5205,10 @@
         <v>47</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E147" t="s">
         <v>211</v>
@@ -5219,10 +5219,10 @@
         <v>47</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E148" t="s">
         <v>211</v>
@@ -5233,10 +5233,10 @@
         <v>47</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E149" t="s">
         <v>211</v>
@@ -5247,10 +5247,10 @@
         <v>47</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E150" t="s">
         <v>211</v>
@@ -5261,10 +5261,10 @@
         <v>47</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E151" t="s">
         <v>212</v>
@@ -5275,10 +5275,10 @@
         <v>47</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E152" t="s">
         <v>212</v>
@@ -5289,10 +5289,10 @@
         <v>47</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E153" t="s">
         <v>212</v>
@@ -5317,10 +5317,10 @@
         <v>47</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E155" t="s">
         <v>213</v>
@@ -5331,10 +5331,10 @@
         <v>47</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E156" t="s">
         <v>213</v>
@@ -5345,10 +5345,10 @@
         <v>47</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E157" t="s">
         <v>213</v>
@@ -5359,10 +5359,10 @@
         <v>47</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E158" t="s">
         <v>213</v>
@@ -5373,10 +5373,10 @@
         <v>47</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E159" t="s">
         <v>214</v>
@@ -5387,10 +5387,10 @@
         <v>47</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E160" t="s">
         <v>214</v>
@@ -5401,10 +5401,10 @@
         <v>47</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E161" t="s">
         <v>215</v>
@@ -5415,10 +5415,10 @@
         <v>47</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E162" t="s">
         <v>215</v>
@@ -5429,10 +5429,10 @@
         <v>47</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E163" t="s">
         <v>215</v>
@@ -5443,10 +5443,10 @@
         <v>47</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E164" t="s">
         <v>215</v>
@@ -5457,10 +5457,10 @@
         <v>47</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E165" t="s">
         <v>216</v>
@@ -5471,10 +5471,10 @@
         <v>47</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E166" t="s">
         <v>216</v>
@@ -5485,10 +5485,10 @@
         <v>47</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E167" t="s">
         <v>216</v>
@@ -5499,10 +5499,10 @@
         <v>47</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E168" t="s">
         <v>216</v>
@@ -5527,10 +5527,10 @@
         <v>47</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E170" t="s">
         <v>218</v>
@@ -5555,10 +5555,10 @@
         <v>47</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E172" t="s">
         <v>219</v>
@@ -5569,10 +5569,10 @@
         <v>47</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E173" t="s">
         <v>219</v>
@@ -5583,10 +5583,10 @@
         <v>47</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E174" t="s">
         <v>219</v>
@@ -5597,10 +5597,10 @@
         <v>47</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E175" t="s">
         <v>219</v>
@@ -5611,10 +5611,10 @@
         <v>47</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E176" t="s">
         <v>220</v>
@@ -5625,10 +5625,10 @@
         <v>47</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E177" t="s">
         <v>220</v>
@@ -5639,10 +5639,10 @@
         <v>47</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E178" t="s">
         <v>220</v>
@@ -5653,10 +5653,10 @@
         <v>47</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E179" t="s">
         <v>220</v>
@@ -5667,10 +5667,10 @@
         <v>47</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E180" t="s">
         <v>220</v>
@@ -5681,10 +5681,10 @@
         <v>47</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E181" t="s">
         <v>221</v>
@@ -5695,10 +5695,10 @@
         <v>47</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E182" t="s">
         <v>221</v>
@@ -5709,10 +5709,10 @@
         <v>47</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E183" t="s">
         <v>221</v>
@@ -5723,10 +5723,10 @@
         <v>47</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E184" t="s">
         <v>221</v>
@@ -5737,10 +5737,10 @@
         <v>47</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E185" t="s">
         <v>221</v>
@@ -5751,10 +5751,10 @@
         <v>47</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E186" t="s">
         <v>222</v>
@@ -5765,10 +5765,10 @@
         <v>47</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E187" t="s">
         <v>222</v>
@@ -5779,10 +5779,10 @@
         <v>47</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E188" t="s">
         <v>222</v>
@@ -5793,10 +5793,10 @@
         <v>47</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E189" t="s">
         <v>222</v>
@@ -5807,10 +5807,10 @@
         <v>47</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E190" t="s">
         <v>222</v>
@@ -5821,10 +5821,10 @@
         <v>47</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E191" t="s">
         <v>222</v>
@@ -5835,10 +5835,10 @@
         <v>47</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E192" t="s">
         <v>222</v>
@@ -5849,10 +5849,10 @@
         <v>47</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E193" t="s">
         <v>223</v>
@@ -5863,10 +5863,10 @@
         <v>47</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E194" t="s">
         <v>223</v>
@@ -5877,10 +5877,10 @@
         <v>47</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E195" t="s">
         <v>224</v>
@@ -5891,10 +5891,10 @@
         <v>47</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E196" t="s">
         <v>224</v>
@@ -5905,10 +5905,10 @@
         <v>47</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E197" t="s">
         <v>224</v>
@@ -5933,10 +5933,10 @@
         <v>47</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E199" t="s">
         <v>225</v>
@@ -5947,10 +5947,10 @@
         <v>47</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E200" t="s">
         <v>225</v>
@@ -5961,10 +5961,10 @@
         <v>47</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E201" t="s">
         <v>225</v>
@@ -5975,10 +5975,10 @@
         <v>47</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E202" t="s">
         <v>226</v>
@@ -5989,10 +5989,10 @@
         <v>47</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E203" t="s">
         <v>226</v>
@@ -6017,10 +6017,10 @@
         <v>47</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E205" t="s">
         <v>227</v>
@@ -6031,10 +6031,10 @@
         <v>47</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E206" t="s">
         <v>227</v>
@@ -6045,10 +6045,10 @@
         <v>47</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E207" t="s">
         <v>227</v>
@@ -6073,10 +6073,10 @@
         <v>47</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E209" t="s">
         <v>227</v>
@@ -6087,10 +6087,10 @@
         <v>47</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E210" t="s">
         <v>227</v>
@@ -6115,10 +6115,10 @@
         <v>47</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E212" t="s">
         <v>228</v>
@@ -6129,10 +6129,10 @@
         <v>47</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E213" t="s">
         <v>229</v>
@@ -6143,10 +6143,10 @@
         <v>47</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E214" t="s">
         <v>229</v>
@@ -6157,10 +6157,10 @@
         <v>47</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E215" t="s">
         <v>229</v>
@@ -6171,10 +6171,10 @@
         <v>47</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E216" t="s">
         <v>229</v>
@@ -6611,7 +6611,7 @@
         <v>131</v>
       </c>
       <c r="F248" t="s">
-        <v>257</v>
+        <v>357</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6625,7 +6625,7 @@
         <v>132</v>
       </c>
       <c r="F249" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6639,7 +6639,7 @@
         <v>133</v>
       </c>
       <c r="F250" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6653,7 +6653,7 @@
         <v>134</v>
       </c>
       <c r="F251" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6667,7 +6667,7 @@
         <v>135</v>
       </c>
       <c r="F252" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6681,7 +6681,7 @@
         <v>136</v>
       </c>
       <c r="F253" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6695,7 +6695,7 @@
         <v>137</v>
       </c>
       <c r="F254" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6723,7 +6723,7 @@
         <v>139</v>
       </c>
       <c r="F256" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6737,7 +6737,7 @@
         <v>140</v>
       </c>
       <c r="F257" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>141</v>
       </c>
       <c r="F258" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6765,7 +6765,7 @@
         <v>142</v>
       </c>
       <c r="F259" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6779,7 +6779,7 @@
         <v>143</v>
       </c>
       <c r="F260" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6793,7 +6793,7 @@
         <v>144</v>
       </c>
       <c r="F261" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6807,7 +6807,7 @@
         <v>145</v>
       </c>
       <c r="F262" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6835,7 +6835,7 @@
         <v>147</v>
       </c>
       <c r="F264" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6849,7 +6849,7 @@
         <v>148</v>
       </c>
       <c r="F265" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6863,7 +6863,7 @@
         <v>149</v>
       </c>
       <c r="F266" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6877,7 +6877,7 @@
         <v>150</v>
       </c>
       <c r="F267" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>151</v>
       </c>
       <c r="F268" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6919,7 +6919,7 @@
         <v>153</v>
       </c>
       <c r="F270" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6933,7 +6933,7 @@
         <v>154</v>
       </c>
       <c r="F271" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6947,7 +6947,7 @@
         <v>155</v>
       </c>
       <c r="F272" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6961,7 +6961,7 @@
         <v>156</v>
       </c>
       <c r="F273" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6989,7 +6989,7 @@
         <v>158</v>
       </c>
       <c r="F275" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -7003,7 +7003,7 @@
         <v>159</v>
       </c>
       <c r="F276" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -7017,7 +7017,7 @@
         <v>160</v>
       </c>
       <c r="F277" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>161</v>
       </c>
       <c r="F278" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -7045,7 +7045,7 @@
         <v>162</v>
       </c>
       <c r="F279" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7059,7 +7059,7 @@
         <v>163</v>
       </c>
       <c r="F280" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7073,7 +7073,7 @@
         <v>164</v>
       </c>
       <c r="F281" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7087,7 +7087,7 @@
         <v>165</v>
       </c>
       <c r="F282" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7101,7 +7101,7 @@
         <v>166</v>
       </c>
       <c r="F283" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7129,7 +7129,7 @@
         <v>168</v>
       </c>
       <c r="F285" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7143,7 +7143,7 @@
         <v>169</v>
       </c>
       <c r="F286" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7157,7 +7157,7 @@
         <v>170</v>
       </c>
       <c r="F287" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7185,7 +7185,7 @@
         <v>172</v>
       </c>
       <c r="F289" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7199,7 +7199,7 @@
         <v>173</v>
       </c>
       <c r="F290" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7213,7 +7213,7 @@
         <v>174</v>
       </c>
       <c r="F291" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7227,7 +7227,7 @@
         <v>175</v>
       </c>
       <c r="F292" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7241,7 +7241,7 @@
         <v>176</v>
       </c>
       <c r="F293" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7255,7 +7255,7 @@
         <v>177</v>
       </c>
       <c r="F294" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7269,7 +7269,7 @@
         <v>178</v>
       </c>
       <c r="F295" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7283,7 +7283,7 @@
         <v>179</v>
       </c>
       <c r="F296" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7297,7 +7297,7 @@
         <v>180</v>
       </c>
       <c r="F297" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>181</v>
       </c>
       <c r="F298" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7339,7 +7339,7 @@
         <v>183</v>
       </c>
       <c r="F300" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7353,7 +7353,7 @@
         <v>184</v>
       </c>
       <c r="F301" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7367,7 +7367,7 @@
         <v>185</v>
       </c>
       <c r="F302" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7381,7 +7381,7 @@
         <v>186</v>
       </c>
       <c r="F303" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7395,7 +7395,7 @@
         <v>187</v>
       </c>
       <c r="F304" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7409,7 +7409,7 @@
         <v>188</v>
       </c>
       <c r="F305" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7423,7 +7423,7 @@
         <v>189</v>
       </c>
       <c r="F306" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7437,7 +7437,7 @@
         <v>190</v>
       </c>
       <c r="F307" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>191</v>
       </c>
       <c r="F308" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7465,7 +7465,7 @@
         <v>192</v>
       </c>
       <c r="F309" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7479,7 +7479,7 @@
         <v>193</v>
       </c>
       <c r="F310" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7493,7 +7493,7 @@
         <v>194</v>
       </c>
       <c r="F311" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7507,7 +7507,7 @@
         <v>195</v>
       </c>
       <c r="F312" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7521,7 +7521,7 @@
         <v>196</v>
       </c>
       <c r="F313" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7549,7 +7549,7 @@
         <v>198</v>
       </c>
       <c r="F315" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7577,7 +7577,7 @@
         <v>200</v>
       </c>
       <c r="F317" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>201</v>
       </c>
       <c r="F318" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7605,7 +7605,7 @@
         <v>202</v>
       </c>
       <c r="F319" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7619,7 +7619,7 @@
         <v>203</v>
       </c>
       <c r="F320" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7633,7 +7633,7 @@
         <v>204</v>
       </c>
       <c r="F321" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7647,7 +7647,7 @@
         <v>205</v>
       </c>
       <c r="F322" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7661,7 +7661,7 @@
         <v>206</v>
       </c>
       <c r="F323" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7675,7 +7675,7 @@
         <v>207</v>
       </c>
       <c r="F324" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7689,7 +7689,7 @@
         <v>208</v>
       </c>
       <c r="F325" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7703,7 +7703,7 @@
         <v>209</v>
       </c>
       <c r="F326" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7717,7 +7717,7 @@
         <v>210</v>
       </c>
       <c r="F327" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>211</v>
       </c>
       <c r="F328" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7745,7 +7745,7 @@
         <v>212</v>
       </c>
       <c r="F329" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7759,7 +7759,7 @@
         <v>213</v>
       </c>
       <c r="F330" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7773,7 +7773,7 @@
         <v>214</v>
       </c>
       <c r="F331" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7787,7 +7787,7 @@
         <v>215</v>
       </c>
       <c r="F332" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7801,7 +7801,7 @@
         <v>216</v>
       </c>
       <c r="F333" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7815,7 +7815,7 @@
         <v>217</v>
       </c>
       <c r="F334" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7829,7 +7829,7 @@
         <v>218</v>
       </c>
       <c r="F335" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7843,7 +7843,7 @@
         <v>219</v>
       </c>
       <c r="F336" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7857,7 +7857,7 @@
         <v>220</v>
       </c>
       <c r="F337" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>221</v>
       </c>
       <c r="F338" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7885,7 +7885,7 @@
         <v>222</v>
       </c>
       <c r="F339" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7899,7 +7899,7 @@
         <v>223</v>
       </c>
       <c r="F340" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7913,7 +7913,7 @@
         <v>224</v>
       </c>
       <c r="F341" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7927,7 +7927,7 @@
         <v>225</v>
       </c>
       <c r="F342" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7955,7 +7955,7 @@
         <v>227</v>
       </c>
       <c r="F344" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7969,7 +7969,7 @@
         <v>228</v>
       </c>
       <c r="F345" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7983,7 +7983,7 @@
         <v>229</v>
       </c>
       <c r="F346" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7997,7 +7997,7 @@
         <v>230</v>
       </c>
       <c r="F347" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>231</v>
       </c>
       <c r="F348" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8039,7 +8039,7 @@
         <v>233</v>
       </c>
       <c r="F350" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8053,7 +8053,7 @@
         <v>234</v>
       </c>
       <c r="F351" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8067,7 +8067,7 @@
         <v>235</v>
       </c>
       <c r="F352" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8095,7 +8095,7 @@
         <v>237</v>
       </c>
       <c r="F354" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8109,7 +8109,7 @@
         <v>238</v>
       </c>
       <c r="F355" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8137,7 +8137,7 @@
         <v>240</v>
       </c>
       <c r="F357" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>241</v>
       </c>
       <c r="F358" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -8165,7 +8165,7 @@
         <v>242</v>
       </c>
       <c r="F359" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -8179,7 +8179,7 @@
         <v>243</v>
       </c>
       <c r="F360" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -8193,7 +8193,7 @@
         <v>244</v>
       </c>
       <c r="F361" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_3_Resultats_202308.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_3_Resultats_202308.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E2ADE8-19B2-4C7D-8243-6E12F3AF9FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99CC115-EBA5-4001-9F57-8E242E7BECCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,12 +160,6 @@
     <t>3. Sélectionnez le Poste de santé</t>
   </si>
   <si>
-    <t>4. Sélectionnez le nom de l'école</t>
-  </si>
-  <si>
-    <t>5. Sélectionnez le code de l'école</t>
-  </si>
-  <si>
     <t>7. Graduation de la micro hématurie</t>
   </si>
   <si>
@@ -973,12 +967,6 @@
     <t>LISLAM</t>
   </si>
   <si>
-    <t>(Août 2023) - 3. SCH/STH - Resultats V2</t>
-  </si>
-  <si>
-    <t>sn_sch_sth_impact_3_Resultats_202308_v2</t>
-  </si>
-  <si>
     <t>Génération Automatique</t>
   </si>
   <si>
@@ -1010,6 +998,18 @@
   </si>
   <si>
     <t>${r_type_code} = 'Saisie Manuel'</t>
+  </si>
+  <si>
+    <t>(Août 2023) - 3. SCH/STH - Resultats V3</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_3_Resultats_202308_v3</t>
+  </si>
+  <si>
+    <t>4. Sélectionnez le nom du village</t>
+  </si>
+  <si>
+    <t>5. Sélectionnez le code du village</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1764,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1821,7 +1821,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1" ht="31.5">
@@ -1829,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>39</v>
@@ -1857,7 +1857,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>40</v>
@@ -1879,7 +1879,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>41</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="9" customFormat="1">
@@ -1903,10 +1903,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>42</v>
+        <v>324</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="5"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" ht="31.5">
@@ -1927,10 +1927,10 @@
         <v>38</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="5"/>
@@ -1943,18 +1943,18 @@
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1">
       <c r="A7" s="47" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="5"/>
@@ -1973,21 +1973,21 @@
         <v>13</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
@@ -2001,17 +2001,17 @@
         <v>13</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="17"/>
       <c r="H9" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
@@ -2022,13 +2022,13 @@
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1">
       <c r="A10" s="47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="5"/>
@@ -2042,16 +2042,16 @@
     </row>
     <row r="11" spans="1:13" s="9" customFormat="1" ht="31.5">
       <c r="A11" s="47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2080,13 +2080,13 @@
     </row>
     <row r="13" spans="1:13" s="9" customFormat="1">
       <c r="A13" s="47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="5"/>
@@ -2103,10 +2103,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
@@ -2125,10 +2125,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="22"/>
@@ -2147,20 +2147,20 @@
         <v>16</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="17"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>12</v>
@@ -2190,10 +2190,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="22"/>
@@ -2212,10 +2212,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="42"/>
@@ -2234,20 +2234,20 @@
         <v>16</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="38"/>
       <c r="G20" s="45"/>
       <c r="H20" s="44"/>
       <c r="I20" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J20" s="41" t="s">
         <v>12</v>
@@ -2277,10 +2277,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="44"/>
@@ -2299,10 +2299,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="44"/>
@@ -2321,20 +2321,20 @@
         <v>16</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E24" s="44"/>
       <c r="F24" s="38"/>
       <c r="G24" s="45"/>
       <c r="H24" s="44"/>
       <c r="I24" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J24" s="41" t="s">
         <v>12</v>
@@ -2364,10 +2364,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="44"/>
@@ -2386,10 +2386,10 @@
         <v>16</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="44"/>
@@ -2408,20 +2408,20 @@
         <v>16</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E28" s="44"/>
       <c r="F28" s="38"/>
       <c r="G28" s="45"/>
       <c r="H28" s="44"/>
       <c r="I28" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J28" s="41" t="s">
         <v>12</v>
@@ -2451,10 +2451,10 @@
         <v>14</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="44"/>
@@ -2473,17 +2473,17 @@
         <v>15</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="44"/>
       <c r="F31" s="38"/>
       <c r="G31" s="45"/>
       <c r="H31" s="52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I31" s="44"/>
       <c r="J31" s="41" t="s">
@@ -2497,17 +2497,17 @@
         <v>16</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="44"/>
       <c r="F32" s="38"/>
       <c r="G32" s="45"/>
       <c r="H32" s="52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I32" s="44"/>
       <c r="J32" s="41" t="s">
@@ -2521,17 +2521,17 @@
         <v>16</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="44"/>
       <c r="F33" s="38"/>
       <c r="G33" s="45"/>
       <c r="H33" s="52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I33" s="44"/>
       <c r="J33" s="41" t="s">
@@ -2545,22 +2545,22 @@
         <v>16</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="38"/>
       <c r="G34" s="45"/>
       <c r="H34" s="52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J34" s="41" t="s">
         <v>12</v>
@@ -2587,13 +2587,13 @@
     </row>
     <row r="36" spans="1:13" s="9" customFormat="1">
       <c r="A36" s="39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="44"/>
@@ -2610,10 +2610,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="44"/>
@@ -2632,10 +2632,10 @@
         <v>16</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="44"/>
@@ -2668,20 +2668,20 @@
         <v>16</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E40" s="44"/>
       <c r="F40" s="38"/>
       <c r="G40" s="45"/>
       <c r="H40" s="44"/>
       <c r="I40" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J40" s="41" t="s">
         <v>12</v>
@@ -2711,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>17</v>
@@ -2731,7 +2731,7 @@
         <v>18</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="8"/>
@@ -2749,7 +2749,7 @@
         <v>19</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="8"/>
@@ -2832,90 +2832,90 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="64" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="28" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>320</v>
-      </c>
       <c r="C11" s="64" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2923,10 +2923,10 @@
         <v>21</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" s="59"/>
     </row>
@@ -2935,10 +2935,10 @@
         <v>21</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" s="59"/>
     </row>
@@ -2947,10 +2947,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D15" s="59"/>
     </row>
@@ -2959,10 +2959,10 @@
         <v>21</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D16" s="59"/>
     </row>
@@ -2975,13 +2975,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2989,13 +2989,13 @@
         <v>22</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3003,13 +3003,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3017,13 +3017,13 @@
         <v>22</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3031,13 +3031,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3045,13 +3045,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3059,13 +3059,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3073,13 +3073,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3087,13 +3087,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3101,13 +3101,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3115,13 +3115,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3129,13 +3129,13 @@
         <v>22</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3143,13 +3143,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3157,13 +3157,13 @@
         <v>22</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3171,13 +3171,13 @@
         <v>22</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3185,13 +3185,13 @@
         <v>22</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3199,13 +3199,13 @@
         <v>22</v>
       </c>
       <c r="B34" s="66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3213,13 +3213,13 @@
         <v>22</v>
       </c>
       <c r="B35" s="66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3227,13 +3227,13 @@
         <v>22</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3241,13 +3241,13 @@
         <v>22</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C37" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3255,13 +3255,13 @@
         <v>22</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3269,13 +3269,13 @@
         <v>22</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3283,13 +3283,13 @@
         <v>22</v>
       </c>
       <c r="B40" s="66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3297,13 +3297,13 @@
         <v>22</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3311,13 +3311,13 @@
         <v>22</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3325,13 +3325,13 @@
         <v>22</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3339,13 +3339,13 @@
         <v>22</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3353,13 +3353,13 @@
         <v>22</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3367,13 +3367,13 @@
         <v>22</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3381,13 +3381,13 @@
         <v>22</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3395,13 +3395,13 @@
         <v>22</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3409,13 +3409,13 @@
         <v>22</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C49" s="66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3423,13 +3423,13 @@
         <v>22</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C50" s="66" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3437,13 +3437,13 @@
         <v>22</v>
       </c>
       <c r="B51" s="66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3451,13 +3451,13 @@
         <v>22</v>
       </c>
       <c r="B52" s="66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C52" s="66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3465,13 +3465,13 @@
         <v>22</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3479,13 +3479,13 @@
         <v>22</v>
       </c>
       <c r="B54" s="66" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3493,13 +3493,13 @@
         <v>22</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C55" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3507,13 +3507,13 @@
         <v>22</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3521,13 +3521,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3535,13 +3535,13 @@
         <v>22</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3549,13 +3549,13 @@
         <v>22</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3563,13 +3563,13 @@
         <v>22</v>
       </c>
       <c r="B60" s="66" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C60" s="66" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3577,13 +3577,13 @@
         <v>22</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C61" s="66" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3591,13 +3591,13 @@
         <v>22</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C62" s="66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3605,13 +3605,13 @@
         <v>22</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C63" s="66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3619,13 +3619,13 @@
         <v>22</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C64" s="66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3633,13 +3633,13 @@
         <v>22</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3647,13 +3647,13 @@
         <v>22</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3661,13 +3661,13 @@
         <v>22</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C67" s="66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3675,13 +3675,13 @@
         <v>22</v>
       </c>
       <c r="B68" s="66" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C68" s="66" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3689,13 +3689,13 @@
         <v>22</v>
       </c>
       <c r="B69" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C69" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3703,13 +3703,13 @@
         <v>22</v>
       </c>
       <c r="B70" s="66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3717,13 +3717,13 @@
         <v>22</v>
       </c>
       <c r="B71" s="66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C71" s="66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3736,13 +3736,13 @@
         <v>30</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C73" s="66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3750,13 +3750,13 @@
         <v>30</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3764,13 +3764,13 @@
         <v>30</v>
       </c>
       <c r="B75" s="66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C75" s="66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3778,13 +3778,13 @@
         <v>30</v>
       </c>
       <c r="B76" s="66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C76" s="66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3792,13 +3792,13 @@
         <v>30</v>
       </c>
       <c r="B77" s="66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C77" s="66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3806,13 +3806,13 @@
         <v>30</v>
       </c>
       <c r="B78" s="66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C78" s="66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3820,13 +3820,13 @@
         <v>30</v>
       </c>
       <c r="B79" s="66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3834,13 +3834,13 @@
         <v>30</v>
       </c>
       <c r="B80" s="66" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C80" s="66" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3848,13 +3848,13 @@
         <v>30</v>
       </c>
       <c r="B81" s="66" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C81" s="66" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3862,13 +3862,13 @@
         <v>30</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3876,13 +3876,13 @@
         <v>30</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C83" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3890,13 +3890,13 @@
         <v>30</v>
       </c>
       <c r="B84" s="66" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C84" s="66" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3904,13 +3904,13 @@
         <v>30</v>
       </c>
       <c r="B85" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C85" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3918,13 +3918,13 @@
         <v>30</v>
       </c>
       <c r="B86" s="66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C86" s="66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3932,13 +3932,13 @@
         <v>30</v>
       </c>
       <c r="B87" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C87" s="66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3946,13 +3946,13 @@
         <v>30</v>
       </c>
       <c r="B88" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C88" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3960,13 +3960,13 @@
         <v>30</v>
       </c>
       <c r="B89" s="66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C89" s="66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3974,13 +3974,13 @@
         <v>30</v>
       </c>
       <c r="B90" s="66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C90" s="66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3988,13 +3988,13 @@
         <v>30</v>
       </c>
       <c r="B91" s="66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C91" s="66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4002,13 +4002,13 @@
         <v>30</v>
       </c>
       <c r="B92" s="66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C92" s="66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E92" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4016,13 +4016,13 @@
         <v>30</v>
       </c>
       <c r="B93" s="66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C93" s="66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4030,13 +4030,13 @@
         <v>30</v>
       </c>
       <c r="B94" s="66" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C94" s="66" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4044,13 +4044,13 @@
         <v>30</v>
       </c>
       <c r="B95" s="66" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C95" s="66" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4058,13 +4058,13 @@
         <v>30</v>
       </c>
       <c r="B96" s="66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C96" s="66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4072,13 +4072,13 @@
         <v>30</v>
       </c>
       <c r="B97" s="66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C97" s="66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4086,13 +4086,13 @@
         <v>30</v>
       </c>
       <c r="B98" s="66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C98" s="66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4100,13 +4100,13 @@
         <v>30</v>
       </c>
       <c r="B99" s="66" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C99" s="66" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4114,13 +4114,13 @@
         <v>30</v>
       </c>
       <c r="B100" s="66" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C100" s="66" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4128,13 +4128,13 @@
         <v>30</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C101" s="66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E101" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4142,13 +4142,13 @@
         <v>30</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C102" s="66" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4156,13 +4156,13 @@
         <v>30</v>
       </c>
       <c r="B103" s="66" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C103" s="66" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E103" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4170,13 +4170,13 @@
         <v>30</v>
       </c>
       <c r="B104" s="66" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C104" s="66" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4184,13 +4184,13 @@
         <v>30</v>
       </c>
       <c r="B105" s="66" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C105" s="66" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E105" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4198,13 +4198,13 @@
         <v>30</v>
       </c>
       <c r="B106" s="66" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C106" s="66" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E106" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4212,13 +4212,13 @@
         <v>30</v>
       </c>
       <c r="B107" s="66" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C107" s="66" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E107" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4226,13 +4226,13 @@
         <v>30</v>
       </c>
       <c r="B108" s="66" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C108" s="66" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E108" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4240,13 +4240,13 @@
         <v>30</v>
       </c>
       <c r="B109" s="66" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C109" s="66" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E109" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4254,13 +4254,13 @@
         <v>30</v>
       </c>
       <c r="B110" s="66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C110" s="66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E110" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4268,13 +4268,13 @@
         <v>30</v>
       </c>
       <c r="B111" s="66" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C111" s="66" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E111" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4282,13 +4282,13 @@
         <v>30</v>
       </c>
       <c r="B112" s="66" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C112" s="66" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E112" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4296,13 +4296,13 @@
         <v>30</v>
       </c>
       <c r="B113" s="66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C113" s="66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E113" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4310,13 +4310,13 @@
         <v>30</v>
       </c>
       <c r="B114" s="66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C114" s="66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E114" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4324,13 +4324,13 @@
         <v>30</v>
       </c>
       <c r="B115" s="66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C115" s="66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E115" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4338,13 +4338,13 @@
         <v>30</v>
       </c>
       <c r="B116" s="66" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C116" s="66" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E116" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4352,13 +4352,13 @@
         <v>30</v>
       </c>
       <c r="B117" s="66" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C117" s="66" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E117" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4366,13 +4366,13 @@
         <v>30</v>
       </c>
       <c r="B118" s="66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C118" s="66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E118" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4380,13 +4380,13 @@
         <v>30</v>
       </c>
       <c r="B119" s="66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C119" s="66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E119" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4394,13 +4394,13 @@
         <v>30</v>
       </c>
       <c r="B120" s="66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C120" s="66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4408,13 +4408,13 @@
         <v>30</v>
       </c>
       <c r="B121" s="66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C121" s="66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E121" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4422,13 +4422,13 @@
         <v>30</v>
       </c>
       <c r="B122" s="66" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C122" s="66" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E122" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4436,13 +4436,13 @@
         <v>30</v>
       </c>
       <c r="B123" s="66" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C123" s="66" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4450,13 +4450,13 @@
         <v>30</v>
       </c>
       <c r="B124" s="66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C124" s="66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E124" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4464,13 +4464,13 @@
         <v>30</v>
       </c>
       <c r="B125" s="66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C125" s="66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E125" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4478,13 +4478,13 @@
         <v>30</v>
       </c>
       <c r="B126" s="66" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C126" s="66" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E126" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4492,13 +4492,13 @@
         <v>30</v>
       </c>
       <c r="B127" s="66" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C127" s="66" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4506,13 +4506,13 @@
         <v>30</v>
       </c>
       <c r="B128" s="66" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C128" s="66" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E128" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4520,13 +4520,13 @@
         <v>30</v>
       </c>
       <c r="B129" s="66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C129" s="66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4534,13 +4534,13 @@
         <v>30</v>
       </c>
       <c r="B130" s="66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C130" s="66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E130" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4548,13 +4548,13 @@
         <v>30</v>
       </c>
       <c r="B131" s="66" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C131" s="66" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4562,13 +4562,13 @@
         <v>30</v>
       </c>
       <c r="B132" s="66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C132" s="66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E132" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4576,13 +4576,13 @@
         <v>30</v>
       </c>
       <c r="B133" s="66" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C133" s="66" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4590,13 +4590,13 @@
         <v>30</v>
       </c>
       <c r="B134" s="66" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C134" s="66" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E134" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4604,13 +4604,13 @@
         <v>30</v>
       </c>
       <c r="B135" s="66" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C135" s="66" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E135" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4618,13 +4618,13 @@
         <v>30</v>
       </c>
       <c r="B136" s="66" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C136" s="66" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E136" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4632,13 +4632,13 @@
         <v>30</v>
       </c>
       <c r="B137" s="66" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C137" s="66" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E137" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4646,13 +4646,13 @@
         <v>30</v>
       </c>
       <c r="B138" s="66" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C138" s="66" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E138" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4660,13 +4660,13 @@
         <v>30</v>
       </c>
       <c r="B139" s="66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C139" s="66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4674,13 +4674,13 @@
         <v>30</v>
       </c>
       <c r="B140" s="66" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C140" s="66" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E140" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4688,13 +4688,13 @@
         <v>30</v>
       </c>
       <c r="B141" s="66" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C141" s="66" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E141" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4702,13 +4702,13 @@
         <v>30</v>
       </c>
       <c r="B142" s="66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C142" s="66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E142" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4716,13 +4716,13 @@
         <v>30</v>
       </c>
       <c r="B143" s="66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C143" s="66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E143" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4730,13 +4730,13 @@
         <v>30</v>
       </c>
       <c r="B144" s="66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C144" s="66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E144" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4744,13 +4744,13 @@
         <v>30</v>
       </c>
       <c r="B145" s="66" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C145" s="66" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E145" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4758,13 +4758,13 @@
         <v>30</v>
       </c>
       <c r="B146" s="66" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C146" s="66" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E146" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4772,13 +4772,13 @@
         <v>30</v>
       </c>
       <c r="B147" s="66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C147" s="66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E147" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4786,13 +4786,13 @@
         <v>30</v>
       </c>
       <c r="B148" s="66" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C148" s="66" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E148" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4800,13 +4800,13 @@
         <v>30</v>
       </c>
       <c r="B149" s="66" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C149" s="66" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E149" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4814,13 +4814,13 @@
         <v>30</v>
       </c>
       <c r="B150" s="66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C150" s="66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E150" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4828,13 +4828,13 @@
         <v>30</v>
       </c>
       <c r="B151" s="66" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C151" s="66" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4842,13 +4842,13 @@
         <v>30</v>
       </c>
       <c r="B152" s="66" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C152" s="66" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E152" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4856,13 +4856,13 @@
         <v>30</v>
       </c>
       <c r="B153" s="66" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C153" s="66" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4870,13 +4870,13 @@
         <v>30</v>
       </c>
       <c r="B154" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C154" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E154" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4884,13 +4884,13 @@
         <v>30</v>
       </c>
       <c r="B155" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C155" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E155" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4898,13 +4898,13 @@
         <v>30</v>
       </c>
       <c r="B156" s="66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C156" s="66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E156" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4912,13 +4912,13 @@
         <v>30</v>
       </c>
       <c r="B157" s="66" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C157" s="66" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E157" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4926,13 +4926,13 @@
         <v>30</v>
       </c>
       <c r="B158" s="66" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C158" s="66" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E158" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4940,13 +4940,13 @@
         <v>30</v>
       </c>
       <c r="B159" s="66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C159" s="66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E159" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4954,13 +4954,13 @@
         <v>30</v>
       </c>
       <c r="B160" s="66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C160" s="66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E160" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4968,13 +4968,13 @@
         <v>30</v>
       </c>
       <c r="B161" s="66" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C161" s="66" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E161" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4982,13 +4982,13 @@
         <v>30</v>
       </c>
       <c r="B162" s="66" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C162" s="66" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E162" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4996,13 +4996,13 @@
         <v>30</v>
       </c>
       <c r="B163" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C163" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E163" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5010,13 +5010,13 @@
         <v>30</v>
       </c>
       <c r="B164" s="66" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C164" s="66" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E164" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5024,13 +5024,13 @@
         <v>30</v>
       </c>
       <c r="B165" s="66" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C165" s="66" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5038,13 +5038,13 @@
         <v>30</v>
       </c>
       <c r="B166" s="66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C166" s="66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E166" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5052,13 +5052,13 @@
         <v>30</v>
       </c>
       <c r="B167" s="66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C167" s="66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E167" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5066,13 +5066,13 @@
         <v>30</v>
       </c>
       <c r="B168" s="66" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C168" s="66" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E168" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5080,13 +5080,13 @@
         <v>30</v>
       </c>
       <c r="B169" s="66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C169" s="66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E169" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5094,13 +5094,13 @@
         <v>30</v>
       </c>
       <c r="B170" s="66" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C170" s="66" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E170" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5108,13 +5108,13 @@
         <v>30</v>
       </c>
       <c r="B171" s="66" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C171" s="66" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E171" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5122,13 +5122,13 @@
         <v>30</v>
       </c>
       <c r="B172" s="66" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C172" s="66" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E172" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5136,13 +5136,13 @@
         <v>30</v>
       </c>
       <c r="B173" s="66" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C173" s="66" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E173" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5150,13 +5150,13 @@
         <v>30</v>
       </c>
       <c r="B174" s="66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C174" s="66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E174" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5164,13 +5164,13 @@
         <v>30</v>
       </c>
       <c r="B175" s="66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C175" s="66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E175" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5178,13 +5178,13 @@
         <v>30</v>
       </c>
       <c r="B176" s="66" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C176" s="66" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E176" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5192,13 +5192,13 @@
         <v>30</v>
       </c>
       <c r="B177" s="66" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C177" s="66" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E177" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5206,13 +5206,13 @@
         <v>30</v>
       </c>
       <c r="B178" s="66" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C178" s="66" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E178" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5220,13 +5220,13 @@
         <v>30</v>
       </c>
       <c r="B179" s="66" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C179" s="66" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E179" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5234,13 +5234,13 @@
         <v>30</v>
       </c>
       <c r="B180" s="66" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C180" s="66" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E180" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5248,13 +5248,13 @@
         <v>30</v>
       </c>
       <c r="B181" s="66" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C181" s="66" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E181" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5262,13 +5262,13 @@
         <v>30</v>
       </c>
       <c r="B182" s="66" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C182" s="66" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E182" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5276,13 +5276,13 @@
         <v>30</v>
       </c>
       <c r="B183" s="66" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C183" s="66" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E183" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5290,13 +5290,13 @@
         <v>30</v>
       </c>
       <c r="B184" s="66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C184" s="66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E184" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5304,13 +5304,13 @@
         <v>30</v>
       </c>
       <c r="B185" s="66" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C185" s="66" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E185" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5318,13 +5318,13 @@
         <v>30</v>
       </c>
       <c r="B186" s="66" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C186" s="66" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E186" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5332,13 +5332,13 @@
         <v>30</v>
       </c>
       <c r="B187" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C187" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E187" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5346,13 +5346,13 @@
         <v>30</v>
       </c>
       <c r="B188" s="66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C188" s="66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E188" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5360,13 +5360,13 @@
         <v>30</v>
       </c>
       <c r="B189" s="66" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C189" s="66" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E189" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5374,13 +5374,13 @@
         <v>30</v>
       </c>
       <c r="B190" s="66" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C190" s="66" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E190" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5388,13 +5388,13 @@
         <v>30</v>
       </c>
       <c r="B191" s="66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C191" s="66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E191" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5402,13 +5402,13 @@
         <v>30</v>
       </c>
       <c r="B192" s="66" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C192" s="66" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E192" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5416,13 +5416,13 @@
         <v>30</v>
       </c>
       <c r="B193" s="66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C193" s="66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E193" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5430,13 +5430,13 @@
         <v>30</v>
       </c>
       <c r="B194" s="66" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C194" s="66" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5444,13 +5444,13 @@
         <v>30</v>
       </c>
       <c r="B195" s="66" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C195" s="66" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E195" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5458,13 +5458,13 @@
         <v>30</v>
       </c>
       <c r="B196" s="66" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C196" s="66" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5472,13 +5472,13 @@
         <v>30</v>
       </c>
       <c r="B197" s="66" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C197" s="66" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E197" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5486,13 +5486,13 @@
         <v>30</v>
       </c>
       <c r="B198" s="66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C198" s="66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E198" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5500,13 +5500,13 @@
         <v>30</v>
       </c>
       <c r="B199" s="66" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C199" s="66" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E199" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5514,13 +5514,13 @@
         <v>30</v>
       </c>
       <c r="B200" s="66" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C200" s="66" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E200" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5528,13 +5528,13 @@
         <v>30</v>
       </c>
       <c r="B201" s="66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C201" s="66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E201" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5542,13 +5542,13 @@
         <v>30</v>
       </c>
       <c r="B202" s="66" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C202" s="66" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E202" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5556,13 +5556,13 @@
         <v>30</v>
       </c>
       <c r="B203" s="66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C203" s="66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E203" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5570,13 +5570,13 @@
         <v>30</v>
       </c>
       <c r="B204" s="66" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C204" s="66" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E204" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5584,13 +5584,13 @@
         <v>30</v>
       </c>
       <c r="B205" s="66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C205" s="66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E205" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5598,13 +5598,13 @@
         <v>30</v>
       </c>
       <c r="B206" s="66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C206" s="66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E206" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5612,13 +5612,13 @@
         <v>30</v>
       </c>
       <c r="B207" s="66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C207" s="66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E207" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5626,13 +5626,13 @@
         <v>30</v>
       </c>
       <c r="B208" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C208" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E208" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5640,13 +5640,13 @@
         <v>30</v>
       </c>
       <c r="B209" s="66" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C209" s="66" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E209" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5654,13 +5654,13 @@
         <v>30</v>
       </c>
       <c r="B210" s="66" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C210" s="66" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E210" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5668,13 +5668,13 @@
         <v>30</v>
       </c>
       <c r="B211" s="66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C211" s="66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E211" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5682,13 +5682,13 @@
         <v>30</v>
       </c>
       <c r="B212" s="66" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C212" s="66" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E212" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5696,13 +5696,13 @@
         <v>30</v>
       </c>
       <c r="B213" s="66" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C213" s="66" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E213" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5710,13 +5710,13 @@
         <v>30</v>
       </c>
       <c r="B214" s="66" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C214" s="66" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E214" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5724,13 +5724,13 @@
         <v>30</v>
       </c>
       <c r="B215" s="66" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C215" s="66" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E215" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5738,13 +5738,13 @@
         <v>30</v>
       </c>
       <c r="B216" s="66" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C216" s="66" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E216" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="E218" s="66"/>
       <c r="F218" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="E219" s="66"/>
       <c r="F219" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="E220" s="66"/>
       <c r="F220" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="E221" s="66"/>
       <c r="F221" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="E222" s="66"/>
       <c r="F222" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="E223" s="66"/>
       <c r="F223" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="E224" s="66"/>
       <c r="F224" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="E225" s="66"/>
       <c r="F225" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="E226" s="66"/>
       <c r="F226" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="E227" s="66"/>
       <c r="F227" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="E228" s="66"/>
       <c r="F228" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="E229" s="66"/>
       <c r="F229" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="E230" s="66"/>
       <c r="F230" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="E231" s="66"/>
       <c r="F231" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="E232" s="66"/>
       <c r="F232" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="E233" s="66"/>
       <c r="F233" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="E234" s="66"/>
       <c r="F234" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="E235" s="66"/>
       <c r="F235" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="E236" s="66"/>
       <c r="F236" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="E237" s="66"/>
       <c r="F237" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="E238" s="66"/>
       <c r="F238" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="E239" s="66"/>
       <c r="F239" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="E240" s="66"/>
       <c r="F240" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="E241" s="66"/>
       <c r="F241" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6125,7 +6125,7 @@
       </c>
       <c r="E242" s="66"/>
       <c r="F242" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="E243" s="66"/>
       <c r="F243" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="E244" s="66"/>
       <c r="F244" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="E245" s="66"/>
       <c r="F245" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="E246" s="66"/>
       <c r="F246" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="E247" s="66"/>
       <c r="F247" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="E248" s="66"/>
       <c r="F248" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="E249" s="66"/>
       <c r="F249" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="E250" s="66"/>
       <c r="F250" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="E251" s="66"/>
       <c r="F251" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="E252" s="66"/>
       <c r="F252" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="E253" s="66"/>
       <c r="F253" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="E254" s="66"/>
       <c r="F254" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="E255" s="66"/>
       <c r="F255" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="E256" s="66"/>
       <c r="F256" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="E257" s="66"/>
       <c r="F257" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="E258" s="66"/>
       <c r="F258" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="E259" s="66"/>
       <c r="F259" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="E260" s="66"/>
       <c r="F260" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="E261" s="66"/>
       <c r="F261" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="E262" s="66"/>
       <c r="F262" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="E263" s="66"/>
       <c r="F263" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="E264" s="66"/>
       <c r="F264" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="E265" s="66"/>
       <c r="F265" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="E266" s="66"/>
       <c r="F266" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="E267" s="66"/>
       <c r="F267" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="E268" s="66"/>
       <c r="F268" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="E269" s="66"/>
       <c r="F269" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="E270" s="66"/>
       <c r="F270" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="E271" s="66"/>
       <c r="F271" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="E272" s="66"/>
       <c r="F272" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="E273" s="66"/>
       <c r="F273" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="E274" s="66"/>
       <c r="F274" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="E275" s="66"/>
       <c r="F275" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="E276" s="66"/>
       <c r="F276" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="E277" s="66"/>
       <c r="F277" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="E278" s="66"/>
       <c r="F278" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="E279" s="66"/>
       <c r="F279" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="E280" s="66"/>
       <c r="F280" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6710,7 +6710,7 @@
       </c>
       <c r="E281" s="66"/>
       <c r="F281" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="E282" s="66"/>
       <c r="F282" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="E283" s="66"/>
       <c r="F283" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6755,7 +6755,7 @@
       </c>
       <c r="E284" s="66"/>
       <c r="F284" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="E285" s="66"/>
       <c r="F285" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="E286" s="66"/>
       <c r="F286" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="E287" s="66"/>
       <c r="F287" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="E288" s="66"/>
       <c r="F288" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="E289" s="66"/>
       <c r="F289" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="E290" s="66"/>
       <c r="F290" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="E291" s="66"/>
       <c r="F291" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="E292" s="66"/>
       <c r="F292" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="E293" s="66"/>
       <c r="F293" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="E294" s="66"/>
       <c r="F294" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="E295" s="66"/>
       <c r="F295" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="E296" s="66"/>
       <c r="F296" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="E297" s="66"/>
       <c r="F297" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="E298" s="66"/>
       <c r="F298" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="E299" s="66"/>
       <c r="F299" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="E300" s="66"/>
       <c r="F300" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="E301" s="66"/>
       <c r="F301" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="E302" s="66"/>
       <c r="F302" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="E303" s="66"/>
       <c r="F303" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="E304" s="66"/>
       <c r="F304" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="E305" s="66"/>
       <c r="F305" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="E306" s="66"/>
       <c r="F306" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="E307" s="66"/>
       <c r="F307" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="E308" s="66"/>
       <c r="F308" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="E309" s="66"/>
       <c r="F309" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="E310" s="66"/>
       <c r="F310" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="E311" s="66"/>
       <c r="F311" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="E312" s="66"/>
       <c r="F312" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="E313" s="66"/>
       <c r="F313" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="E314" s="66"/>
       <c r="F314" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="E315" s="66"/>
       <c r="F315" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="E316" s="66"/>
       <c r="F316" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="E317" s="66"/>
       <c r="F317" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="E318" s="66"/>
       <c r="F318" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="E319" s="66"/>
       <c r="F319" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="E320" s="66"/>
       <c r="F320" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="E321" s="66"/>
       <c r="F321" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="E322" s="66"/>
       <c r="F322" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7340,7 +7340,7 @@
       </c>
       <c r="E323" s="66"/>
       <c r="F323" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="E324" s="66"/>
       <c r="F324" s="28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="E325" s="66"/>
       <c r="F325" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="E326" s="66"/>
       <c r="F326" s="28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="E327" s="66"/>
       <c r="F327" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="E328" s="66"/>
       <c r="F328" s="28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="E329" s="66"/>
       <c r="F329" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="E330" s="66"/>
       <c r="F330" s="28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="E331" s="66"/>
       <c r="F331" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="E332" s="66"/>
       <c r="F332" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="E333" s="66"/>
       <c r="F333" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="E334" s="66"/>
       <c r="F334" s="28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="E335" s="66"/>
       <c r="F335" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="E336" s="66"/>
       <c r="F336" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="E337" s="66"/>
       <c r="F337" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7564,7 +7564,7 @@
         <v>221</v>
       </c>
       <c r="F338" s="28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7578,7 +7578,7 @@
         <v>222</v>
       </c>
       <c r="F339" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7592,7 +7592,7 @@
         <v>223</v>
       </c>
       <c r="F340" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7606,7 +7606,7 @@
         <v>224</v>
       </c>
       <c r="F341" s="28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7620,7 +7620,7 @@
         <v>225</v>
       </c>
       <c r="F342" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7634,7 +7634,7 @@
         <v>226</v>
       </c>
       <c r="F343" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7648,7 +7648,7 @@
         <v>227</v>
       </c>
       <c r="F344" s="28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7662,7 +7662,7 @@
         <v>228</v>
       </c>
       <c r="F345" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7676,7 +7676,7 @@
         <v>229</v>
       </c>
       <c r="F346" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7690,7 +7690,7 @@
         <v>230</v>
       </c>
       <c r="F347" s="28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7704,7 +7704,7 @@
         <v>231</v>
       </c>
       <c r="F348" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7718,7 +7718,7 @@
         <v>232</v>
       </c>
       <c r="F349" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7732,7 +7732,7 @@
         <v>233</v>
       </c>
       <c r="F350" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7746,7 +7746,7 @@
         <v>234</v>
       </c>
       <c r="F351" s="28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7760,7 +7760,7 @@
         <v>235</v>
       </c>
       <c r="F352" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7774,7 +7774,7 @@
         <v>236</v>
       </c>
       <c r="F353" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7788,7 +7788,7 @@
         <v>237</v>
       </c>
       <c r="F354" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7802,7 +7802,7 @@
         <v>238</v>
       </c>
       <c r="F355" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7816,7 +7816,7 @@
         <v>239</v>
       </c>
       <c r="F356" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7830,7 +7830,7 @@
         <v>240</v>
       </c>
       <c r="F357" s="28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7844,7 +7844,7 @@
         <v>241</v>
       </c>
       <c r="F358" s="28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7858,7 +7858,7 @@
         <v>242</v>
       </c>
       <c r="F359" s="28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7872,7 +7872,7 @@
         <v>243</v>
       </c>
       <c r="F360" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7886,7 +7886,7 @@
         <v>244</v>
       </c>
       <c r="F361" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -7922,10 +7922,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="27" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>

--- a/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_3_Resultats_202308.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_3_Resultats_202308.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36526F09-DD86-4801-AB81-7F0FAFDA69DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C41D303-7D02-4FF3-BC3B-22500C497140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="243">
   <si>
     <t>type</t>
   </si>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t>L'ISLAM</t>
+  </si>
+  <si>
+    <t>L.ISLAM</t>
   </si>
 </sst>
 </file>
@@ -2517,7 +2520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD181"/>
+      <selection pane="bottomLeft" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3364,7 +3367,7 @@
         <v>30</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>241</v>
@@ -4191,7 +4194,7 @@
       </c>
       <c r="E124" s="11"/>
       <c r="F124" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:6" customFormat="1">

--- a/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_3_Resultats_202308.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2023/sn_sch_sth_impact_3_Resultats_202308.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C41D303-7D02-4FF3-BC3B-22500C497140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0485DE2-2721-4BDF-9A64-0A0EB0C9F7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="242">
   <si>
     <t>type</t>
   </si>
@@ -670,9 +670,6 @@
     <t>GAMBA GAMBA</t>
   </si>
   <si>
-    <t>MADINA BEROLA</t>
-  </si>
-  <si>
     <t>DINDIFA</t>
   </si>
   <si>
@@ -682,18 +679,12 @@
     <t>MISSIRA SIRIMANA</t>
   </si>
   <si>
-    <t>BOBOTI</t>
-  </si>
-  <si>
     <t>FALOUMBOU</t>
   </si>
   <si>
     <t>MADINA SABODALA</t>
   </si>
   <si>
-    <t>WORTOKHATY</t>
-  </si>
-  <si>
     <t>Génération Automatique</t>
   </si>
   <si>
@@ -727,12 +718,6 @@
     <t>${r_type_code} = 'Saisie Manuel'</t>
   </si>
   <si>
-    <t>(Août 2023) - 3. SCH/STH - Resultats V3</t>
-  </si>
-  <si>
-    <t>sn_sch_sth_impact_3_Resultats_202308_v3</t>
-  </si>
-  <si>
     <t>4. Sélectionnez le nom du village</t>
   </si>
   <si>
@@ -761,6 +746,18 @@
   </si>
   <si>
     <t>L.ISLAM</t>
+  </si>
+  <si>
+    <t>MANDANKHOLY</t>
+  </si>
+  <si>
+    <t>NAFADI</t>
+  </si>
+  <si>
+    <t>(Août 2023) - 3. SCH/STH - Resultats V3.3</t>
+  </si>
+  <si>
+    <t>sn_sch_sth_impact_3_Resultats_202308_v3_3</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1649,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="5"/>
@@ -1676,7 +1673,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="5"/>
@@ -1694,13 +1691,13 @@
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1">
       <c r="A7" s="47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="5"/>
@@ -1722,7 +1719,7 @@
         <v>113</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>126</v>
@@ -1733,7 +1730,7 @@
         <v>125</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
@@ -1747,17 +1744,17 @@
         <v>13</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="17"/>
       <c r="H9" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
@@ -2518,9 +2515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2644,24 +2641,24 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:7" customFormat="1">
@@ -2956,10 +2953,10 @@
         <v>22</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
         <v>128</v>
@@ -2970,10 +2967,10 @@
         <v>22</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D36" t="s">
         <v>128</v>
@@ -3012,10 +3009,10 @@
         <v>22</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
         <v>129</v>
@@ -3208,10 +3205,10 @@
         <v>22</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
         <v>130</v>
@@ -3236,10 +3233,10 @@
         <v>22</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s">
         <v>130</v>
@@ -3250,10 +3247,10 @@
         <v>22</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D56" t="s">
         <v>130</v>
@@ -3278,10 +3275,10 @@
         <v>22</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s">
         <v>130</v>
@@ -3367,10 +3364,10 @@
         <v>30</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s">
         <v>145</v>
@@ -3471,7 +3468,7 @@
         <v>149</v>
       </c>
       <c r="E72" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:5" customFormat="1">
@@ -3695,7 +3692,7 @@
         <v>211</v>
       </c>
       <c r="E88" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:5" customFormat="1">
@@ -3703,10 +3700,10 @@
         <v>30</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="E89" t="s">
         <v>161</v>
@@ -3773,13 +3770,13 @@
         <v>30</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E94" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:5" customFormat="1">
@@ -3843,13 +3840,13 @@
         <v>30</v>
       </c>
       <c r="B99" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E99" t="s">
         <v>214</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E99" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:5" customFormat="1">
@@ -3857,10 +3854,10 @@
         <v>30</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="E100" t="s">
         <v>162</v>
@@ -4017,7 +4014,7 @@
         <v>188</v>
       </c>
       <c r="E111" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:5" customFormat="1">
@@ -4031,7 +4028,7 @@
         <v>189</v>
       </c>
       <c r="E112" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="1:6" customFormat="1">
@@ -4067,13 +4064,13 @@
         <v>30</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E115" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:6" customFormat="1">
@@ -4081,13 +4078,13 @@
         <v>30</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E116" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:6" customFormat="1">
@@ -4095,10 +4092,10 @@
         <v>30</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="E117" t="s">
         <v>163</v>
@@ -4143,7 +4140,7 @@
         <v>190</v>
       </c>
       <c r="E120" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:6" customFormat="1">
@@ -4194,7 +4191,7 @@
       </c>
       <c r="E124" s="11"/>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:6" customFormat="1">
@@ -4734,7 +4731,7 @@
       </c>
       <c r="E160" s="11"/>
       <c r="F160" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
     </row>
     <row r="161" spans="1:6" customFormat="1">
@@ -4749,7 +4746,7 @@
       </c>
       <c r="E161" s="11"/>
       <c r="F161" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="162" spans="1:6" customFormat="1">
@@ -4764,7 +4761,7 @@
       </c>
       <c r="E162" s="11"/>
       <c r="F162" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="163" spans="1:6" customFormat="1">
@@ -4779,7 +4776,7 @@
       </c>
       <c r="E163" s="11"/>
       <c r="F163" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
     </row>
     <row r="164" spans="1:6" customFormat="1">
@@ -4794,7 +4791,7 @@
       </c>
       <c r="E164" s="11"/>
       <c r="F164" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="165" spans="1:6" customFormat="1">
@@ -4809,7 +4806,7 @@
       </c>
       <c r="E165" s="11"/>
       <c r="F165" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:6" customFormat="1">
@@ -4824,7 +4821,7 @@
       </c>
       <c r="E166" s="11"/>
       <c r="F166" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:6" customFormat="1">
@@ -5062,14 +5059,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="41.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5085,10 +5082,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="27" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
